--- a/data/trans_orig/P11_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>71336</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56267</v>
+        <v>56165</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88259</v>
+        <v>88394</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1505687614697639</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1187639152712899</v>
+        <v>0.1185479528115998</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1862886576197992</v>
+        <v>0.1865735151280342</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -765,19 +765,19 @@
         <v>68223</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54423</v>
+        <v>54163</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83595</v>
+        <v>84792</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2224575538008977</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1774600040193832</v>
+        <v>0.1766122104362911</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2725800451958457</v>
+        <v>0.2764828092653048</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>135</v>
@@ -786,19 +786,19 @@
         <v>139559</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>117585</v>
+        <v>120450</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>162905</v>
+        <v>161929</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1788174510088803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1506611539628415</v>
+        <v>0.1543327522830905</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2087302318549019</v>
+        <v>0.2074803144186524</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>402440</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>385517</v>
+        <v>385382</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>417509</v>
+        <v>417611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8494312385302361</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8137113423802009</v>
+        <v>0.8134264848719663</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8812360847287102</v>
+        <v>0.8814520471884006</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>231</v>
@@ -836,19 +836,19 @@
         <v>238457</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>223085</v>
+        <v>221888</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>252257</v>
+        <v>252517</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7775424461991024</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7274199548041543</v>
+        <v>0.7235171907346951</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8225399959806167</v>
+        <v>0.8233877895637086</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>618</v>
@@ -857,19 +857,19 @@
         <v>640898</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>617552</v>
+        <v>618528</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>662872</v>
+        <v>660007</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8211825489911196</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7912697681450981</v>
+        <v>0.7925196855813474</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8493388460371583</v>
+        <v>0.8456672477169094</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>43390</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31773</v>
+        <v>32595</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58472</v>
+        <v>57680</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1182497437942152</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08659150255748251</v>
+        <v>0.08882937249844641</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1593532558543151</v>
+        <v>0.157194700498782</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -982,19 +982,19 @@
         <v>68119</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53117</v>
+        <v>53901</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83380</v>
+        <v>86970</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1831829758452868</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1428391717517052</v>
+        <v>0.1449467153419484</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2242214700624692</v>
+        <v>0.2338757811005219</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -1003,19 +1003,19 @@
         <v>111509</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>91630</v>
+        <v>90847</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131143</v>
+        <v>130454</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1509330411846748</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1240250337795505</v>
+        <v>0.1229652786331206</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1775089994963578</v>
+        <v>0.1765760539231469</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>323544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>308462</v>
+        <v>309254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>335161</v>
+        <v>334339</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8817502562057848</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8406467441456852</v>
+        <v>0.8428052995012181</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.913408497442518</v>
+        <v>0.9111706275015536</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>298</v>
@@ -1053,19 +1053,19 @@
         <v>303746</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>288485</v>
+        <v>284895</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>318748</v>
+        <v>317964</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8168170241547132</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7757785299375308</v>
+        <v>0.7661242188994781</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8571608282482949</v>
+        <v>0.8550532846580517</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>607</v>
@@ -1074,19 +1074,19 @@
         <v>627290</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>607656</v>
+        <v>608345</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>647169</v>
+        <v>647952</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8490669588153252</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8224910005036422</v>
+        <v>0.8234239460768531</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8759749662204495</v>
+        <v>0.8770347213668795</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>99127</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83116</v>
+        <v>82832</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117430</v>
+        <v>117703</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1827599527850486</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1532401586891724</v>
+        <v>0.152716673406869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2165056910646379</v>
+        <v>0.217009061530125</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -1199,19 +1199,19 @@
         <v>50038</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37880</v>
+        <v>38903</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62604</v>
+        <v>62894</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2982300483227303</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.225768921597063</v>
+        <v>0.2318665695461079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3731256273945739</v>
+        <v>0.374853968510897</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -1220,19 +1220,19 @@
         <v>149165</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127620</v>
+        <v>129343</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>171637</v>
+        <v>176311</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2100404146011937</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1797025599838153</v>
+        <v>0.1821297635055398</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2416839661731472</v>
+        <v>0.2482657897930754</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>443262</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>424959</v>
+        <v>424686</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>459273</v>
+        <v>459557</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8172400472149514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7834943089353621</v>
+        <v>0.782990938469875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8467598413108276</v>
+        <v>0.847283326593131</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>116</v>
@@ -1270,19 +1270,19 @@
         <v>117744</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>105178</v>
+        <v>104888</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>129902</v>
+        <v>128879</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7017699516772696</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.626874372605426</v>
+        <v>0.625146031489103</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.774231078402937</v>
+        <v>0.768133430453892</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>548</v>
@@ -1291,19 +1291,19 @@
         <v>561006</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>538534</v>
+        <v>533860</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>582551</v>
+        <v>580828</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7899595853988063</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7583160338268526</v>
+        <v>0.7517342102069244</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8202974400161847</v>
+        <v>0.81787023649446</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>282956</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>253070</v>
+        <v>256530</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>310494</v>
+        <v>312272</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.228497349263198</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2043633886744488</v>
+        <v>0.2071571801153028</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2507355929331205</v>
+        <v>0.2521712897567652</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>189</v>
@@ -1416,19 +1416,19 @@
         <v>188738</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>165565</v>
+        <v>165703</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>212807</v>
+        <v>213407</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2642329699036443</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2317916427270038</v>
+        <v>0.2319840433677683</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2979297779386851</v>
+        <v>0.2987703006257044</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>481</v>
@@ -1437,19 +1437,19 @@
         <v>471694</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>434317</v>
+        <v>437165</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>512406</v>
+        <v>510945</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2415697510157169</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2224278095015546</v>
+        <v>0.2238864922430825</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2624199499078367</v>
+        <v>0.2616714779106623</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>955378</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>927840</v>
+        <v>926062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>985264</v>
+        <v>981804</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.771502650736802</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7492644070668794</v>
+        <v>0.7478287102432347</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7956366113255512</v>
+        <v>0.7928428198846972</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>505</v>
@@ -1487,19 +1487,19 @@
         <v>525547</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>501478</v>
+        <v>500878</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>548720</v>
+        <v>548582</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7357670300963558</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7020702220613149</v>
+        <v>0.7012296993742956</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7682083572729962</v>
+        <v>0.7680159566322317</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1437</v>
@@ -1508,19 +1508,19 @@
         <v>1480926</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1440214</v>
+        <v>1441675</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1518303</v>
+        <v>1515455</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7584302489842831</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7375800500921635</v>
+        <v>0.7383285220893381</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7775721904984456</v>
+        <v>0.7761135077569176</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>77624</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61692</v>
+        <v>62840</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94691</v>
+        <v>93986</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2214303559903519</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1759844064254666</v>
+        <v>0.179259185060297</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.270118673523747</v>
+        <v>0.2681051567358709</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>154</v>
@@ -1633,19 +1633,19 @@
         <v>161981</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>140028</v>
+        <v>140492</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>185238</v>
+        <v>184713</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.284801151425071</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2462022707194628</v>
+        <v>0.2470176295241252</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3256922710947869</v>
+        <v>0.3247692484362083</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>232</v>
@@ -1654,19 +1654,19 @@
         <v>239605</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>209477</v>
+        <v>212060</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>266847</v>
+        <v>269934</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2606362493715888</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2278645039249734</v>
+        <v>0.2306737073569677</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2902693473221352</v>
+        <v>0.2936277959051989</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>272931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>255864</v>
+        <v>256569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>288863</v>
+        <v>287715</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.778569644009648</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7298813264762531</v>
+        <v>0.7318948432641291</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8240155935745334</v>
+        <v>0.820740814939703</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>385</v>
@@ -1704,19 +1704,19 @@
         <v>406771</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>383514</v>
+        <v>384039</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>428724</v>
+        <v>428260</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.715198848574929</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6743077289052131</v>
+        <v>0.6752307515637916</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.753797729280537</v>
+        <v>0.7529823704758748</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>647</v>
@@ -1725,19 +1725,19 @@
         <v>679702</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>652460</v>
+        <v>649373</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>709830</v>
+        <v>707247</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7393637506284112</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7097306526778645</v>
+        <v>0.7063722040948012</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7721354960750257</v>
+        <v>0.7693262926430324</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>20352</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12019</v>
+        <v>13197</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30665</v>
+        <v>30026</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06824898038091889</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04030562296315617</v>
+        <v>0.04425550042538985</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1028321479874395</v>
+        <v>0.100689205300792</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>435</v>
@@ -1850,19 +1850,19 @@
         <v>448534</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>415521</v>
+        <v>416066</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>483265</v>
+        <v>484382</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3591831820936484</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3327467765918431</v>
+        <v>0.3331832190894232</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.386996175401913</v>
+        <v>0.3878906580521229</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>455</v>
@@ -1871,19 +1871,19 @@
         <v>468885</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>433003</v>
+        <v>435234</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>509642</v>
+        <v>505934</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3031011130696624</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2799057155614892</v>
+        <v>0.2813480968235305</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3294476815841523</v>
+        <v>0.3270507109518666</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>277849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>267536</v>
+        <v>268175</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286182</v>
+        <v>285004</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9317510196190811</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8971678520125604</v>
+        <v>0.899310794699208</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9596943770368439</v>
+        <v>0.9557444995746102</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>803</v>
@@ -1921,19 +1921,19 @@
         <v>800226</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>765495</v>
+        <v>764378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>833239</v>
+        <v>832694</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6408168179063516</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.613003824598087</v>
+        <v>0.6121093419478771</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.667253223408157</v>
+        <v>0.6668167809105767</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1089</v>
@@ -1942,19 +1942,19 @@
         <v>1078075</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1037318</v>
+        <v>1041026</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1113957</v>
+        <v>1111726</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6968988869303375</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6705523184158478</v>
+        <v>0.6729492890481334</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7200942844385109</v>
+        <v>0.7186519031764694</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>594784</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>550733</v>
+        <v>554209</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>640926</v>
+        <v>639688</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.181880690664577</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1684102181868288</v>
+        <v>0.1694731716149784</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1959905085638875</v>
+        <v>0.1956118048830366</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>958</v>
@@ -2067,19 +2067,19 @@
         <v>985633</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>933611</v>
+        <v>934008</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1037960</v>
+        <v>1037610</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2917692434262242</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2763697592246578</v>
+        <v>0.2764871687075999</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3072593790340433</v>
+        <v>0.3071556708200501</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1557</v>
@@ -2088,19 +2088,19 @@
         <v>1580417</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1510632</v>
+        <v>1518993</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1651009</v>
+        <v>1646628</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2377169761639842</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2272202767094048</v>
+        <v>0.228477940934231</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2483350259980523</v>
+        <v>0.2476760265544403</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2675406</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2629264</v>
+        <v>2630502</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2719457</v>
+        <v>2715981</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.818119309335423</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8040094914361122</v>
+        <v>0.8043881951169632</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8315897818131712</v>
+        <v>0.8305268283850213</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2338</v>
@@ -2138,19 +2138,19 @@
         <v>2392491</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2340164</v>
+        <v>2340514</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2444513</v>
+        <v>2444116</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7082307565737759</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6927406209659567</v>
+        <v>0.6928443291799496</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7236302407753421</v>
+        <v>0.7235128312924001</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4946</v>
@@ -2159,19 +2159,19 @@
         <v>5067897</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4997305</v>
+        <v>5001686</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5137682</v>
+        <v>5129321</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7622830238360159</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7516649740019476</v>
+        <v>0.7523239734455596</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7727797232905952</v>
+        <v>0.771522059065769</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>53346</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38683</v>
+        <v>39032</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69160</v>
+        <v>68709</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1228170157131929</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08905934192565258</v>
+        <v>0.08986146753631614</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1592234810896344</v>
+        <v>0.1581853243301367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -2526,19 +2526,19 @@
         <v>51546</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38101</v>
+        <v>38897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66267</v>
+        <v>67178</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1639231574162753</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1211661411116867</v>
+        <v>0.1236982468292392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2107370468119757</v>
+        <v>0.2136337007765767</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -2547,19 +2547,19 @@
         <v>104893</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>85929</v>
+        <v>87602</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126414</v>
+        <v>126183</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1400790563155156</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1147546491980119</v>
+        <v>0.1169888550380725</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1688200844069977</v>
+        <v>0.1685108876224309</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>381010</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>365196</v>
+        <v>365647</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>395673</v>
+        <v>395324</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8771829842868072</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8407765189103653</v>
+        <v>0.8418146756698635</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9109406580743473</v>
+        <v>0.9101385324636839</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>237</v>
@@ -2597,19 +2597,19 @@
         <v>262908</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248187</v>
+        <v>247276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276353</v>
+        <v>275557</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8360768425837247</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7892629531880239</v>
+        <v>0.7863662992234233</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8788338588883133</v>
+        <v>0.8763017531707609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>590</v>
@@ -2618,19 +2618,19 @@
         <v>643917</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>622396</v>
+        <v>622627</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>662881</v>
+        <v>661208</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8599209436844844</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8311799155930024</v>
+        <v>0.8314891123775692</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8852453508019881</v>
+        <v>0.8830111449619275</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>68253</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53554</v>
+        <v>54151</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87011</v>
+        <v>86169</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1633642454621454</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1281822527660711</v>
+        <v>0.1296099636557368</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2082612582046688</v>
+        <v>0.2062462377414644</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -2743,19 +2743,19 @@
         <v>63497</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50045</v>
+        <v>47622</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80092</v>
+        <v>78618</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1883752991234042</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1484675798579895</v>
+        <v>0.1412784374395075</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2376070303526949</v>
+        <v>0.2332346820091303</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>118</v>
@@ -2764,19 +2764,19 @@
         <v>131750</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>110365</v>
+        <v>110734</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>153477</v>
+        <v>154214</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.174532511254204</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1462038544677614</v>
+        <v>0.1466924491753346</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2033147150577911</v>
+        <v>0.2042915081200162</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>349544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>330786</v>
+        <v>331628</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>364243</v>
+        <v>363646</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8366357545378545</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.791738741795331</v>
+        <v>0.7937537622585357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8718177472339289</v>
+        <v>0.8703900363442633</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>247</v>
@@ -2814,19 +2814,19 @@
         <v>273579</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>256984</v>
+        <v>258458</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>287031</v>
+        <v>289454</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8116247008765959</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.762392969647305</v>
+        <v>0.7667653179908698</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8515324201420104</v>
+        <v>0.8587215625604925</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>560</v>
@@ -2835,19 +2835,19 @@
         <v>623123</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>601396</v>
+        <v>600659</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>644508</v>
+        <v>644139</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.825467488745796</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7966852849422088</v>
+        <v>0.7957084918799836</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8537961455322385</v>
+        <v>0.8533075508246653</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>144962</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>121702</v>
+        <v>125186</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>169555</v>
+        <v>171273</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2318279786591223</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1946295433736625</v>
+        <v>0.2002018246561903</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2711576766263655</v>
+        <v>0.2739048425619392</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -2960,19 +2960,19 @@
         <v>82927</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66279</v>
+        <v>68890</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98997</v>
+        <v>98226</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3199868416830021</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2557503068155492</v>
+        <v>0.2658238800191795</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3819961058646863</v>
+        <v>0.379021231467904</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>203</v>
@@ -2981,19 +2981,19 @@
         <v>227889</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>200011</v>
+        <v>201426</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>255212</v>
+        <v>257792</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2576596502613925</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2261395623703841</v>
+        <v>0.2277396761757893</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2885523975756595</v>
+        <v>0.2914692671147593</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>480338</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>455745</v>
+        <v>454027</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>503598</v>
+        <v>500114</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7681720213408777</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7288423233736344</v>
+        <v>0.7260951574380607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8053704566263374</v>
+        <v>0.7997981753438096</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>166</v>
@@ -3031,19 +3031,19 @@
         <v>176230</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>160160</v>
+        <v>160931</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>192878</v>
+        <v>190267</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6800131583169979</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6180038941353134</v>
+        <v>0.6209787685320961</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7442496931844502</v>
+        <v>0.7341761199808206</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>628</v>
@@ -3052,19 +3052,19 @@
         <v>656568</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>629245</v>
+        <v>626665</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>684446</v>
+        <v>683031</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7423403497386075</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7114476024243407</v>
+        <v>0.7085307328852407</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7738604376296159</v>
+        <v>0.7722603238242108</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>256868</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>226948</v>
+        <v>229111</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>286431</v>
+        <v>289387</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.222368188655734</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1964670009664885</v>
+        <v>0.1983393357672577</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2479606898199933</v>
+        <v>0.2505195383225153</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>174</v>
@@ -3177,19 +3177,19 @@
         <v>190848</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>167593</v>
+        <v>166481</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>216585</v>
+        <v>217708</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2492664934025009</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2188932183538437</v>
+        <v>0.2174408986879785</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2828816172149191</v>
+        <v>0.2843488692200131</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>413</v>
@@ -3198,19 +3198,19 @@
         <v>447716</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>413645</v>
+        <v>411302</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>488927</v>
+        <v>488888</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2330900448169116</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2153521967396475</v>
+        <v>0.2141322075057727</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2545456968116421</v>
+        <v>0.2545254023967098</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>898278</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>868715</v>
+        <v>865759</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>928198</v>
+        <v>926035</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.777631811344266</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7520393101800068</v>
+        <v>0.7494804616774849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8035329990335115</v>
+        <v>0.8016606642327423</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>536</v>
@@ -3248,19 +3248,19 @@
         <v>574790</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>549053</v>
+        <v>547930</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>598045</v>
+        <v>599157</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7507335065974992</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7171183827850809</v>
+        <v>0.7156511307799872</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7811067816461563</v>
+        <v>0.7825591013120218</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1376</v>
@@ -3269,19 +3269,19 @@
         <v>1473068</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1431857</v>
+        <v>1431896</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1507139</v>
+        <v>1509482</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7669099551830885</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7454543031883579</v>
+        <v>0.7454745976032903</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7846478032603525</v>
+        <v>0.7858677924942273</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>100636</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84243</v>
+        <v>82590</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119018</v>
+        <v>118997</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1984184449613337</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1660967725048136</v>
+        <v>0.1628381278350296</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2346609068140506</v>
+        <v>0.2346192682730615</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>278</v>
@@ -3394,19 +3394,19 @@
         <v>297993</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>271965</v>
+        <v>271941</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>326697</v>
+        <v>325393</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3917958951030451</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3575738985733795</v>
+        <v>0.357543000581803</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4295348561414036</v>
+        <v>0.4278204391375709</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>373</v>
@@ -3415,19 +3415,19 @@
         <v>398629</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>368273</v>
+        <v>364316</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>433246</v>
+        <v>432152</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.314432595148843</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2904878145227598</v>
+        <v>0.287366770161219</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3417380659639649</v>
+        <v>0.3408751910949844</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>406554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>388172</v>
+        <v>388193</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>422947</v>
+        <v>424600</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8015815550386662</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7653390931859494</v>
+        <v>0.7653807317269388</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8339032274951871</v>
+        <v>0.8371618721649707</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>424</v>
@@ -3465,19 +3465,19 @@
         <v>462590</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>433886</v>
+        <v>435190</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>488618</v>
+        <v>488642</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6082041048969549</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5704651438585964</v>
+        <v>0.572179560862429</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6424261014266205</v>
+        <v>0.6424569994181969</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>813</v>
@@ -3486,19 +3486,19 @@
         <v>869144</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>834527</v>
+        <v>835621</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>899500</v>
+        <v>903457</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.685567404851157</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6582619340360351</v>
+        <v>0.6591248089050156</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7095121854772402</v>
+        <v>0.712633229838781</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>19362</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11900</v>
+        <v>11875</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29163</v>
+        <v>29621</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0730548999061565</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04490048984667573</v>
+        <v>0.04480735961048372</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1100357597708792</v>
+        <v>0.1117658291520259</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>394</v>
@@ -3611,19 +3611,19 @@
         <v>420635</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>389123</v>
+        <v>388522</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>453206</v>
+        <v>453766</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3791717981815562</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3507661923620669</v>
+        <v>0.3502243274226065</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4085327606965636</v>
+        <v>0.4090369221643107</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>412</v>
@@ -3632,19 +3632,19 @@
         <v>439997</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>406866</v>
+        <v>403698</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>476502</v>
+        <v>474000</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3201415981112946</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2960355662308187</v>
+        <v>0.2937307857203302</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3467029791460684</v>
+        <v>0.3448822033456221</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>245667</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235866</v>
+        <v>235408</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253129</v>
+        <v>253154</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9269451000938435</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8899642402291212</v>
+        <v>0.8882341708479744</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9550995101533244</v>
+        <v>0.9551926403895165</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>650</v>
@@ -3682,19 +3682,19 @@
         <v>688716</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>656145</v>
+        <v>655585</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>720228</v>
+        <v>720829</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6208282018184438</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5914672393034364</v>
+        <v>0.5909630778356897</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6492338076379331</v>
+        <v>0.6497756725773935</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>895</v>
@@ -3703,19 +3703,19 @@
         <v>934384</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>897879</v>
+        <v>900381</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>967515</v>
+        <v>970683</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6798584018887054</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6532970208539316</v>
+        <v>0.6551177966543779</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7039644337691813</v>
+        <v>0.7062692142796697</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>643427</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>598376</v>
+        <v>594397</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>691322</v>
+        <v>692254</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1889753265542692</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.175743812693758</v>
+        <v>0.1745753864947801</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.203042185243553</v>
+        <v>0.2033160118218428</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1026</v>
@@ -3828,19 +3828,19 @@
         <v>1107446</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1046076</v>
+        <v>1051054</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1161172</v>
+        <v>1160367</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3122856279068716</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2949801795044879</v>
+        <v>0.2963837458637928</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3274355551489778</v>
+        <v>0.3272088015308927</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1613</v>
@@ -3849,19 +3849,19 @@
         <v>1750873</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1672039</v>
+        <v>1678397</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1823491</v>
+        <v>1827656</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2518850425556801</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2405437881285713</v>
+        <v>0.2414585004198036</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2623321202539816</v>
+        <v>0.2629313688096367</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2761391</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2713496</v>
+        <v>2712564</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2806442</v>
+        <v>2810421</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8110246734457308</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7969578147564472</v>
+        <v>0.7966839881781571</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8242561873062423</v>
+        <v>0.8254246135052199</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2260</v>
@@ -3899,19 +3899,19 @@
         <v>2438814</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2385088</v>
+        <v>2385893</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2500184</v>
+        <v>2495206</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6877143720931284</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6725644448510227</v>
+        <v>0.6727911984691075</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7050198204955126</v>
+        <v>0.7036162541362072</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4862</v>
@@ -3920,19 +3920,19 @@
         <v>5200205</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5127587</v>
+        <v>5123422</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5279039</v>
+        <v>5272681</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7481149574443199</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.737667879746018</v>
+        <v>0.7370686311903637</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7594562118714281</v>
+        <v>0.7585414995801966</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>60966</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45839</v>
+        <v>46943</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76761</v>
+        <v>77045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1436798482690219</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1080287381774677</v>
+        <v>0.1106317713663526</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1809033560376039</v>
+        <v>0.1815739699933281</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -4287,19 +4287,19 @@
         <v>61061</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48267</v>
+        <v>45863</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77950</v>
+        <v>75029</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1773614480049975</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1401981593045465</v>
+        <v>0.1332152890786008</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2264166257872191</v>
+        <v>0.2179316090064071</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -4308,19 +4308,19 @@
         <v>122027</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102001</v>
+        <v>101503</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144355</v>
+        <v>142558</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1587668126407945</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1327103652350458</v>
+        <v>0.1320634378756136</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1878163066140912</v>
+        <v>0.1854792325534029</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>363353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>347558</v>
+        <v>347274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>378480</v>
+        <v>377376</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8563201517309782</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8190966439623962</v>
+        <v>0.8184260300066719</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8919712618225323</v>
+        <v>0.8893682286336474</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>274</v>
@@ -4358,19 +4358,19 @@
         <v>283215</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>266326</v>
+        <v>269247</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>296009</v>
+        <v>298413</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8226385519950026</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7735833742127813</v>
+        <v>0.7820683909935927</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8598018406954536</v>
+        <v>0.8667847109213991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>611</v>
@@ -4379,19 +4379,19 @@
         <v>646568</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>624240</v>
+        <v>626037</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>666594</v>
+        <v>667092</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8412331873592055</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8121836933859087</v>
+        <v>0.814520767446597</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.867289634764954</v>
+        <v>0.8679365621243864</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>45898</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33158</v>
+        <v>33558</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59071</v>
+        <v>60082</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1219912558452523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08813005008247163</v>
+        <v>0.08919322928686846</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1570019048006487</v>
+        <v>0.1596898836883344</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -4504,19 +4504,19 @@
         <v>71375</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56910</v>
+        <v>55141</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88595</v>
+        <v>86725</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1927186741608741</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1536623937145637</v>
+        <v>0.1488851926308148</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2392157013224738</v>
+        <v>0.2341656000696539</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -4525,19 +4525,19 @@
         <v>117273</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96669</v>
+        <v>97887</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>137631</v>
+        <v>139439</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1570761357168265</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1294793158760196</v>
+        <v>0.131110758397678</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1843432016627937</v>
+        <v>0.1867654724311191</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>330346</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>317173</v>
+        <v>316162</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>343086</v>
+        <v>342686</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8780087441547477</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8429980951993513</v>
+        <v>0.8403101163116652</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9118699499175283</v>
+        <v>0.9108067707131314</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>285</v>
@@ -4575,19 +4575,19 @@
         <v>298982</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>281762</v>
+        <v>283632</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>313447</v>
+        <v>315216</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8072813258391259</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7607842986775262</v>
+        <v>0.7658343999303461</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8463376062854363</v>
+        <v>0.8511148073691851</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>593</v>
@@ -4596,19 +4596,19 @@
         <v>629328</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>608970</v>
+        <v>607162</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>649932</v>
+        <v>648714</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8429238642831735</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8156567983372058</v>
+        <v>0.813234527568881</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8705206841239803</v>
+        <v>0.8688892416023221</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>105759</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87507</v>
+        <v>88387</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122875</v>
+        <v>124692</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2041041173152382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1688793588615897</v>
+        <v>0.1705784047468386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2371354849459487</v>
+        <v>0.2406424051638595</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -4721,19 +4721,19 @@
         <v>47190</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34956</v>
+        <v>34723</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60414</v>
+        <v>59357</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2878208777217313</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2132038777775505</v>
+        <v>0.2117833528182133</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3684821127410497</v>
+        <v>0.3620324818854007</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -4742,19 +4742,19 @@
         <v>152949</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130454</v>
+        <v>131332</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>175609</v>
+        <v>176757</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2242264353648917</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1912477103634946</v>
+        <v>0.192534870930046</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2574470816783571</v>
+        <v>0.25913000731835</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>412404</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>395288</v>
+        <v>393471</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>430656</v>
+        <v>429776</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7958958826847617</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7628645150540514</v>
+        <v>0.7593575948361407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8311206411384104</v>
+        <v>0.8294215952531616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>111</v>
@@ -4792,19 +4792,19 @@
         <v>116765</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>103541</v>
+        <v>104598</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>128999</v>
+        <v>129232</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7121791222782687</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6315178872589502</v>
+        <v>0.6379675181145992</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7867961222224489</v>
+        <v>0.7882166471817863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>507</v>
@@ -4813,19 +4813,19 @@
         <v>529169</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>506509</v>
+        <v>505361</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>551664</v>
+        <v>550786</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7757735646351084</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7425529183216426</v>
+        <v>0.7408699926816499</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8087522896365053</v>
+        <v>0.8074651290699537</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>251309</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>226081</v>
+        <v>225076</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>282872</v>
+        <v>281910</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2201563070924351</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1980556274670873</v>
+        <v>0.1971753408021573</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2478059656418899</v>
+        <v>0.2469635900487759</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>184</v>
@@ -4938,19 +4938,19 @@
         <v>202057</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>176546</v>
+        <v>180325</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>226896</v>
+        <v>231112</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2464373562497381</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.215322778585713</v>
+        <v>0.219932427745731</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2767312856218287</v>
+        <v>0.281873803381934</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>427</v>
@@ -4959,19 +4959,19 @@
         <v>453366</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>417654</v>
+        <v>415675</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>493332</v>
+        <v>491163</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2311423265487205</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2129348757127799</v>
+        <v>0.2119260542014012</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2515183992436076</v>
+        <v>0.2504122242709473</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>890195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>858632</v>
+        <v>859594</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>915423</v>
+        <v>916428</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7798436929075649</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7521940343581104</v>
+        <v>0.7530364099512241</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8019443725329127</v>
+        <v>0.8028246591978428</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>608</v>
@@ -5009,19 +5009,19 @@
         <v>617856</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>593017</v>
+        <v>588801</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>643367</v>
+        <v>639588</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7535626437502618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7232687143781715</v>
+        <v>0.718126196618066</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7846772214142874</v>
+        <v>0.780067572254269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1460</v>
@@ -5030,19 +5030,19 @@
         <v>1508051</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1468085</v>
+        <v>1470254</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1543763</v>
+        <v>1545742</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7688576734512795</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7484816007563925</v>
+        <v>0.7495877757290531</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7870651242872201</v>
+        <v>0.7880739457985989</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>146559</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>125808</v>
+        <v>125498</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>168163</v>
+        <v>167708</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2373849097736381</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2037731180824738</v>
+        <v>0.2032710968088476</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2723768279684534</v>
+        <v>0.2716404792676338</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>240</v>
@@ -5155,19 +5155,19 @@
         <v>264506</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>236241</v>
+        <v>241383</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>291531</v>
+        <v>294753</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3597057872758948</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3212667912269392</v>
+        <v>0.3282594712561948</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3964568690042824</v>
+        <v>0.4008388924571737</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>388</v>
@@ -5176,19 +5176,19 @@
         <v>411066</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>380013</v>
+        <v>379022</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>452188</v>
+        <v>443963</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3038781463935299</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2809225514283522</v>
+        <v>0.2801901335862458</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3342772732527043</v>
+        <v>0.3281976635602685</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>470832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>449228</v>
+        <v>449683</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>491583</v>
+        <v>491893</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7626150902263619</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7276231720315466</v>
+        <v>0.7283595207323661</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7962268819175262</v>
+        <v>0.7967289031911524</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>456</v>
@@ -5226,19 +5226,19 @@
         <v>470835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>443810</v>
+        <v>440588</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>499100</v>
+        <v>493958</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6402942127241052</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6035431309957174</v>
+        <v>0.5991611075428261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6787332087730604</v>
+        <v>0.6717405287438051</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>902</v>
@@ -5247,19 +5247,19 @@
         <v>941666</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>900544</v>
+        <v>908769</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>972719</v>
+        <v>973710</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6961218536064702</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6657227267472956</v>
+        <v>0.6718023364397319</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7190774485716478</v>
+        <v>0.7198098664137542</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>14833</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8087</v>
+        <v>8584</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24055</v>
+        <v>25667</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05234485686727518</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02853879127275065</v>
+        <v>0.03029039342282135</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08488673677500558</v>
+        <v>0.09057617239435674</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>313</v>
@@ -5372,19 +5372,19 @@
         <v>361984</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>330136</v>
+        <v>331802</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>395683</v>
+        <v>396960</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3366661821904915</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3070462995227546</v>
+        <v>0.308594984449839</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3680082165424473</v>
+        <v>0.3691964642317431</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>326</v>
@@ -5393,19 +5393,19 @@
         <v>376817</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>346747</v>
+        <v>343662</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>416478</v>
+        <v>411328</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2773609261900871</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2552274840553947</v>
+        <v>0.252956321368394</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3065536593666953</v>
+        <v>0.3027629134362876</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>268547</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259325</v>
+        <v>257713</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>275293</v>
+        <v>274796</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9476551431327248</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9151132632249943</v>
+        <v>0.9094238276056433</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9714612087272493</v>
+        <v>0.9697096065771786</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>673</v>
@@ -5443,19 +5443,19 @@
         <v>713217</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>679518</v>
+        <v>678241</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>745065</v>
+        <v>743399</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6633338178095085</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6319917834575527</v>
+        <v>0.6308035357682569</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6929537004772452</v>
+        <v>0.6914050155501608</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>929</v>
@@ -5464,19 +5464,19 @@
         <v>981764</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>942103</v>
+        <v>947253</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1011834</v>
+        <v>1014919</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7226390738099129</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6934463406333047</v>
+        <v>0.6972370865637123</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7447725159446051</v>
+        <v>0.7470436786316059</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>625326</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>580872</v>
+        <v>581403</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>674198</v>
+        <v>671450</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1860534717295196</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1728271311174581</v>
+        <v>0.1729849946492202</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.200594367989441</v>
+        <v>0.1997769326761807</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>897</v>
@@ -5589,19 +5589,19 @@
         <v>1008173</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>956801</v>
+        <v>953174</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1061571</v>
+        <v>1062237</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2873071373264588</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2726671937851715</v>
+        <v>0.2716336528760221</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3025245913141516</v>
+        <v>0.302714214949742</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1503</v>
@@ -5610,19 +5610,19 @@
         <v>1633499</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1563060</v>
+        <v>1554968</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1711269</v>
+        <v>1700823</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2377712518542595</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2275181774912963</v>
+        <v>0.2263402746620942</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.249091479614768</v>
+        <v>0.2475709758685279</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2735675</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2686803</v>
+        <v>2689551</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2780129</v>
+        <v>2779598</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8139465282704804</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7994056320105591</v>
+        <v>0.8002230673238193</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8271728688825419</v>
+        <v>0.8270150053507797</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2407</v>
@@ -5660,19 +5660,19 @@
         <v>2500869</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2447471</v>
+        <v>2446805</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2552241</v>
+        <v>2555868</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7126928626735413</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6974754086858485</v>
+        <v>0.697285785050258</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7273328062148284</v>
+        <v>0.7283663471239779</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5002</v>
@@ -5681,19 +5681,19 @@
         <v>5236545</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5158775</v>
+        <v>5169221</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5306984</v>
+        <v>5315076</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7622287481457405</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7509085203852319</v>
+        <v>0.7524290241314716</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7724818225087037</v>
+        <v>0.7736597253379057</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>117577</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>101036</v>
+        <v>101803</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>137452</v>
+        <v>137992</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2141505102403628</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1840221428518587</v>
+        <v>0.1854207745991078</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.250349104302636</v>
+        <v>0.251333753389675</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>205</v>
@@ -6048,19 +6048,19 @@
         <v>132887</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>117650</v>
+        <v>115045</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150090</v>
+        <v>148501</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2729680561389324</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2416689989059416</v>
+        <v>0.236318149327019</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3083063588715018</v>
+        <v>0.3050422514529822</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>341</v>
@@ -6069,19 +6069,19 @@
         <v>250464</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>224829</v>
+        <v>225409</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273528</v>
+        <v>278740</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2417928697850131</v>
+        <v>0.241792869785013</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2170459593794912</v>
+        <v>0.2176057113489896</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2640588288587175</v>
+        <v>0.2690904607724101</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>431463</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411588</v>
+        <v>411048</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448004</v>
+        <v>447237</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7858494897596371</v>
+        <v>0.7858494897596373</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.749650895697364</v>
+        <v>0.7486662466103251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8159778571481412</v>
+        <v>0.8145792254008922</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>479</v>
@@ -6119,19 +6119,19 @@
         <v>353934</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>336731</v>
+        <v>338320</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>369171</v>
+        <v>371776</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7270319438610675</v>
+        <v>0.7270319438610674</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6916936411284982</v>
+        <v>0.6949577485470179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7583310010940587</v>
+        <v>0.7636818506729809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>896</v>
@@ -6140,19 +6140,19 @@
         <v>785397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>762333</v>
+        <v>757121</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>811032</v>
+        <v>810452</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7582071302149869</v>
+        <v>0.758207130214987</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7359411711412823</v>
+        <v>0.7309095392275901</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7829540406205089</v>
+        <v>0.7823942886510104</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>107185</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91685</v>
+        <v>88709</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126297</v>
+        <v>126371</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2222806340305854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1901358804382214</v>
+        <v>0.1839651466441949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2619140007542932</v>
+        <v>0.2620673992879749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>189</v>
@@ -6265,19 +6265,19 @@
         <v>122220</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>106484</v>
+        <v>108863</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>139069</v>
+        <v>137653</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2892883904710903</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2520411872734066</v>
+        <v>0.2576723457573398</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3291677445593755</v>
+        <v>0.3258155804520447</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>310</v>
@@ -6286,19 +6286,19 @@
         <v>229406</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>207107</v>
+        <v>207486</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>254859</v>
+        <v>252648</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2535728126214638</v>
+        <v>0.2535728126214637</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2289250992420671</v>
+        <v>0.2293432974326888</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2817077969962374</v>
+        <v>0.2792634578867456</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>375023</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>355911</v>
+        <v>355837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>390523</v>
+        <v>393499</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7777193659694145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7380859992457075</v>
+        <v>0.737932600712025</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8098641195617788</v>
+        <v>0.8160348533558049</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>400</v>
@@ -6336,19 +6336,19 @@
         <v>300266</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>283417</v>
+        <v>284833</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>316002</v>
+        <v>313623</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7107116095289097</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6708322554406246</v>
+        <v>0.6741844195479553</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7479588127265936</v>
+        <v>0.7423276542426602</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>759</v>
@@ -6357,19 +6357,19 @@
         <v>675288</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>649835</v>
+        <v>652046</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>697587</v>
+        <v>697208</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7464271873785362</v>
+        <v>0.7464271873785361</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7182922030037625</v>
+        <v>0.7207365421132544</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7710749007579328</v>
+        <v>0.7706567025673111</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>140215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>121443</v>
+        <v>121533</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159803</v>
+        <v>159899</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2979663086567235</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2580752537567677</v>
+        <v>0.2582666767505822</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3395923305164797</v>
+        <v>0.3397980124091849</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>138</v>
@@ -6482,19 +6482,19 @@
         <v>83936</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72024</v>
+        <v>73460</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94326</v>
+        <v>95167</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4476656006761639</v>
+        <v>0.4476656006761638</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3841352894003072</v>
+        <v>0.3917952730340595</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5030809283049893</v>
+        <v>0.5075629100950492</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>297</v>
@@ -6503,19 +6503,19 @@
         <v>224151</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>202726</v>
+        <v>200730</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>249239</v>
+        <v>247778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3406186521031678</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.308061453809256</v>
+        <v>0.3050294665199098</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3787432748354146</v>
+        <v>0.3765229251445009</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>330357</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310769</v>
+        <v>310673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>349129</v>
+        <v>349039</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7020336913432765</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6604076694835204</v>
+        <v>0.6602019875908153</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7419247462432325</v>
+        <v>0.7417333232494181</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -6553,19 +6553,19 @@
         <v>103561</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>93171</v>
+        <v>92330</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>115473</v>
+        <v>114037</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5523343993238361</v>
+        <v>0.5523343993238362</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4969190716950112</v>
+        <v>0.4924370899049508</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6158647105996928</v>
+        <v>0.6082047269659406</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>479</v>
@@ -6574,19 +6574,19 @@
         <v>433918</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>408830</v>
+        <v>410291</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>455343</v>
+        <v>457339</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6593813478968321</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6212567251645853</v>
+        <v>0.6234770748554996</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6919385461907439</v>
+        <v>0.6949705334800903</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>346116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>315553</v>
+        <v>315546</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>380401</v>
+        <v>378524</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3057988412672239</v>
+        <v>0.305798841267224</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2787958184188725</v>
+        <v>0.2787899552377054</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3360898716018021</v>
+        <v>0.3344317538505628</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>495</v>
@@ -6699,19 +6699,19 @@
         <v>299358</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>276175</v>
+        <v>275599</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>322611</v>
+        <v>321249</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3476017489360704</v>
+        <v>0.3476017489360703</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3206817238332944</v>
+        <v>0.320012996535052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3746015724134144</v>
+        <v>0.3730202697897186</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>894</v>
@@ -6720,19 +6720,19 @@
         <v>645475</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>606802</v>
+        <v>606890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>687771</v>
+        <v>690252</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3238621440031818</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.304458334648787</v>
+        <v>0.30450265354882</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.345083877242377</v>
+        <v>0.3463289271117869</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>785727</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>751442</v>
+        <v>753319</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>816290</v>
+        <v>816297</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6942011587327762</v>
+        <v>0.6942011587327761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6639101283981983</v>
+        <v>0.6655682461494371</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7212041815811278</v>
+        <v>0.7212100447622949</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>735</v>
@@ -6770,19 +6770,19 @@
         <v>561853</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>538600</v>
+        <v>539962</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>585036</v>
+        <v>585612</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6523982510639296</v>
+        <v>0.6523982510639297</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6253984275865856</v>
+        <v>0.6269797302102812</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6793182761667056</v>
+        <v>0.679987003464948</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1454</v>
@@ -6791,19 +6791,19 @@
         <v>1347579</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1305283</v>
+        <v>1302802</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1386252</v>
+        <v>1386164</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6761378559968182</v>
+        <v>0.6761378559968183</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6549161227576232</v>
+        <v>0.6536710728882131</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6955416653512133</v>
+        <v>0.6954973464511799</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>179921</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156956</v>
+        <v>157359</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203648</v>
+        <v>204154</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.316782145435337</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2763480938107378</v>
+        <v>0.2770576783312838</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3585578649568878</v>
+        <v>0.3594483089436781</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>659</v>
@@ -6916,19 +6916,19 @@
         <v>381372</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>355166</v>
+        <v>355413</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>403872</v>
+        <v>404214</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.45927173476028</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4277129860498193</v>
+        <v>0.4280105461856713</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4863678603645056</v>
+        <v>0.4867791118803546</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>858</v>
@@ -6937,19 +6937,19 @@
         <v>561293</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>528879</v>
+        <v>531646</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>592292</v>
+        <v>595056</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4013970844141723</v>
+        <v>0.4013970844141721</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.378217005058627</v>
+        <v>0.380196007054325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4235657748745734</v>
+        <v>0.4255420911339298</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>388043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>364316</v>
+        <v>363810</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>411008</v>
+        <v>410605</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.683217854564663</v>
+        <v>0.6832178545646629</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6414421350431118</v>
+        <v>0.6405516910563215</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7236519061892621</v>
+        <v>0.7229423216687162</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>630</v>
@@ -6987,19 +6987,19 @@
         <v>449012</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>426512</v>
+        <v>426170</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>475218</v>
+        <v>474971</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.54072826523972</v>
+        <v>0.5407282652397201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5136321396354943</v>
+        <v>0.5132208881196452</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5722870139501804</v>
+        <v>0.5719894538143285</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>978</v>
@@ -7008,19 +7008,19 @@
         <v>837055</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>806056</v>
+        <v>803292</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>869469</v>
+        <v>866702</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5986029155858278</v>
+        <v>0.5986029155858279</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5764342251254266</v>
+        <v>0.5744579088660704</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6217829949413729</v>
+        <v>0.6198039929456752</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>25735</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15328</v>
+        <v>15240</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43011</v>
+        <v>42294</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.108483782054695</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.064612697932482</v>
+        <v>0.06424038204539981</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1813064042176963</v>
+        <v>0.1782836190755035</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>570</v>
@@ -7133,19 +7133,19 @@
         <v>334896</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>306960</v>
+        <v>309022</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>360158</v>
+        <v>360065</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3974864904030998</v>
+        <v>0.3974864904030999</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3643293599861805</v>
+        <v>0.3667761605041477</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4274690969098963</v>
+        <v>0.4273586428994806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>588</v>
@@ -7154,19 +7154,19 @@
         <v>360632</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>326843</v>
+        <v>328301</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>392163</v>
+        <v>390917</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.333991569933218</v>
+        <v>0.3339915699332179</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3026990832035314</v>
+        <v>0.3040493516804866</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3631937565330014</v>
+        <v>0.362039389359288</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>211493</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194217</v>
+        <v>194934</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>221900</v>
+        <v>221988</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.891516217945305</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8186935957823037</v>
+        <v>0.8217163809244965</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.935387302067518</v>
+        <v>0.9357596179546001</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>586</v>
@@ -7204,19 +7204,19 @@
         <v>507639</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>482377</v>
+        <v>482470</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>535575</v>
+        <v>533513</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6025135095969001</v>
+        <v>0.6025135095969002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5725309030901036</v>
+        <v>0.5726413571005193</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6356706400138195</v>
+        <v>0.6332238394958523</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>680</v>
@@ -7225,19 +7225,19 @@
         <v>719131</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>687600</v>
+        <v>688846</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>752920</v>
+        <v>751462</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6660084300667821</v>
+        <v>0.6660084300667819</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6368062434669985</v>
+        <v>0.6379606106407121</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6973009167964688</v>
+        <v>0.6959506483195134</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>916750</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>868647</v>
+        <v>867078</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>974475</v>
+        <v>969838</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.266585791888527</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2525978086827486</v>
+        <v>0.2521414263427577</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2833721037330784</v>
+        <v>0.2820237333134905</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2256</v>
@@ -7350,19 +7350,19 @@
         <v>1354670</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1306755</v>
+        <v>1306418</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1405892</v>
+        <v>1406321</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3730911829932629</v>
+        <v>0.373091182993263</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3598947012755782</v>
+        <v>0.3598019458914163</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3871981652443034</v>
+        <v>0.3873163731690234</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3288</v>
@@ -7371,19 +7371,19 @@
         <v>2271419</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2191942</v>
+        <v>2194851</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2347262</v>
+        <v>2350536</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3212853307725683</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3100435396468019</v>
+        <v>0.3104548995412692</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3320129683527163</v>
+        <v>0.3324761300598714</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2522104</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2464379</v>
+        <v>2469016</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2570207</v>
+        <v>2571776</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7334142081114731</v>
+        <v>0.7334142081114732</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7166278962669218</v>
+        <v>0.7179762666865095</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7474021913172517</v>
+        <v>0.7478585736572411</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2981</v>
@@ -7421,19 +7421,19 @@
         <v>2276266</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2225044</v>
+        <v>2224615</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2324181</v>
+        <v>2324518</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6269088170067371</v>
+        <v>0.626908817006737</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6128018347556966</v>
+        <v>0.6126836268309765</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6401052987244219</v>
+        <v>0.6401980541085835</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5246</v>
@@ -7442,19 +7442,19 @@
         <v>4798370</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4722527</v>
+        <v>4719253</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4877847</v>
+        <v>4874938</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6787146692274318</v>
+        <v>0.6787146692274316</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6679870316472835</v>
+        <v>0.6675238699401282</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6899564603531971</v>
+        <v>0.6895451004587309</v>
       </c>
     </row>
     <row r="24">
